--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307929333333333</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N2">
-        <v>3.923788</v>
+        <v>6.059906</v>
       </c>
       <c r="O2">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P2">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q2">
-        <v>38.90731524822267</v>
+        <v>42.10162920829467</v>
       </c>
       <c r="R2">
-        <v>233.443891489336</v>
+        <v>252.609775249768</v>
       </c>
       <c r="S2">
-        <v>0.04633916337254689</v>
+        <v>0.02313530671285866</v>
       </c>
       <c r="T2">
-        <v>0.03313152016356832</v>
+        <v>0.01576416057215439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.047117</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N3">
-        <v>12.141351</v>
+        <v>8.696075</v>
       </c>
       <c r="O3">
-        <v>0.7557576065790654</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P3">
-        <v>0.7557576065790653</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q3">
-        <v>120.390645696537</v>
+        <v>60.41660138251667</v>
       </c>
       <c r="R3">
-        <v>722.343874179222</v>
+        <v>362.4996082951</v>
       </c>
       <c r="S3">
-        <v>0.1433869637076304</v>
+        <v>0.03319958466732361</v>
       </c>
       <c r="T3">
-        <v>0.1025186415447166</v>
+        <v>0.02262185628745686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.75021766666667</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>65.250653</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1387214964445808</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1487743969271858</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.307929333333333</v>
+        <v>0.473903</v>
       </c>
       <c r="N4">
-        <v>3.923788</v>
+        <v>1.421709</v>
       </c>
       <c r="O4">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P4">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q4">
-        <v>28.44774769261822</v>
+        <v>9.877424692742</v>
       </c>
       <c r="R4">
-        <v>256.029729233564</v>
+        <v>59.26454815645201</v>
       </c>
       <c r="S4">
-        <v>0.03388167031055808</v>
+        <v>0.005427753132050493</v>
       </c>
       <c r="T4">
-        <v>0.03633701478525199</v>
+        <v>0.003698415282824032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>65.250653</v>
       </c>
       <c r="I5">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J5">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.047117</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N5">
-        <v>12.141351</v>
+        <v>6.059906</v>
       </c>
       <c r="O5">
-        <v>0.7557576065790654</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P5">
-        <v>0.7557576065790653</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q5">
-        <v>88.025675672467</v>
+        <v>43.93475817984645</v>
       </c>
       <c r="R5">
-        <v>792.231081052203</v>
+        <v>395.412823618618</v>
       </c>
       <c r="S5">
-        <v>0.1048398261340227</v>
+        <v>0.02414263117508451</v>
       </c>
       <c r="T5">
-        <v>0.1124373821419338</v>
+        <v>0.02467581168483931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.00397566666667</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H6">
-        <v>93.011927</v>
+        <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1977413728048684</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J6">
-        <v>0.2120713389099788</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.307929333333333</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N6">
-        <v>3.923788</v>
+        <v>8.696075</v>
       </c>
       <c r="O6">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P6">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q6">
-        <v>40.55100922438622</v>
+        <v>63.04717469855278</v>
       </c>
       <c r="R6">
-        <v>364.959083019476</v>
+        <v>567.424572286975</v>
       </c>
       <c r="S6">
-        <v>0.04829682617220238</v>
+        <v>0.03464511353738375</v>
       </c>
       <c r="T6">
-        <v>0.0517968113913554</v>
+        <v>0.03541023723754775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.00397566666667</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H7">
-        <v>93.011927</v>
+        <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1977413728048684</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J7">
-        <v>0.2120713389099788</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>4.047117</v>
+        <v>0.473903</v>
       </c>
       <c r="N7">
-        <v>12.141351</v>
+        <v>1.421709</v>
       </c>
       <c r="O7">
-        <v>0.7557576065790654</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P7">
-        <v>0.7557576065790653</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q7">
-        <v>125.476716988153</v>
+        <v>10.30749340288633</v>
       </c>
       <c r="R7">
-        <v>1129.290452893377</v>
+        <v>92.767440625977</v>
       </c>
       <c r="S7">
-        <v>0.1494445466326661</v>
+        <v>0.005664080602124558</v>
       </c>
       <c r="T7">
-        <v>0.1602745275186234</v>
+        <v>0.005789169593495544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.0364265</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H8">
-        <v>4.072853</v>
+        <v>114.450985</v>
       </c>
       <c r="I8">
-        <v>0.0129881979026049</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J8">
-        <v>0.009286286358668003</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307929333333333</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N8">
-        <v>3.923788</v>
+        <v>6.059906</v>
       </c>
       <c r="O8">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P8">
-        <v>0.2442423934209346</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q8">
-        <v>2.663501954527333</v>
+        <v>77.06246785637889</v>
       </c>
       <c r="R8">
-        <v>15.981011727164</v>
+        <v>693.56221070741</v>
       </c>
       <c r="S8">
-        <v>0.003172268541956984</v>
+        <v>0.04234667074489092</v>
       </c>
       <c r="T8">
-        <v>0.002268104806233248</v>
+        <v>0.04328188030554068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.0364265</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H9">
-        <v>4.072853</v>
+        <v>114.450985</v>
       </c>
       <c r="I9">
-        <v>0.0129881979026049</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J9">
-        <v>0.009286286358668003</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.047117</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N9">
-        <v>12.141351</v>
+        <v>8.696075</v>
       </c>
       <c r="O9">
-        <v>0.7557576065790654</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P9">
-        <v>0.7557576065790653</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q9">
-        <v>8.2416563074005</v>
+        <v>110.5860388204306</v>
       </c>
       <c r="R9">
-        <v>49.449937844403</v>
+        <v>995.2743493838751</v>
       </c>
       <c r="S9">
-        <v>0.009815929360647921</v>
+        <v>0.06076824043110195</v>
       </c>
       <c r="T9">
-        <v>0.007018181552434753</v>
+        <v>0.06211028310967277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.571287</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H10">
-        <v>52.713861</v>
+        <v>114.450985</v>
       </c>
       <c r="I10">
-        <v>0.1120685440694613</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J10">
-        <v>0.1201899524281925</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.307929333333333</v>
+        <v>0.473903</v>
       </c>
       <c r="N10">
-        <v>3.923788</v>
+        <v>1.421709</v>
       </c>
       <c r="O10">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P10">
-        <v>0.2442423934209346</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q10">
-        <v>22.98200169171867</v>
+        <v>18.07955504815167</v>
       </c>
       <c r="R10">
-        <v>206.838015225468</v>
+        <v>162.715995433365</v>
       </c>
       <c r="S10">
-        <v>0.02737188943072471</v>
+        <v>0.009934913663355196</v>
       </c>
       <c r="T10">
-        <v>0.02935548164621001</v>
+        <v>0.0101543223223776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.571287</v>
+        <v>1.0325075</v>
       </c>
       <c r="H11">
-        <v>52.713861</v>
+        <v>2.065015</v>
       </c>
       <c r="I11">
-        <v>0.1120685440694613</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J11">
-        <v>0.1201899524281925</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.047117</v>
+        <v>2.019968666666667</v>
       </c>
       <c r="N11">
-        <v>12.141351</v>
+        <v>6.059906</v>
       </c>
       <c r="O11">
-        <v>0.7557576065790654</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="P11">
-        <v>0.7557576065790653</v>
+        <v>0.3745841340760022</v>
       </c>
       <c r="Q11">
-        <v>71.11305432957901</v>
+        <v>2.085632798098333</v>
       </c>
       <c r="R11">
-        <v>640.017488966211</v>
+        <v>12.51379678859</v>
       </c>
       <c r="S11">
-        <v>0.08469665463873659</v>
+        <v>0.001146078082529315</v>
       </c>
       <c r="T11">
-        <v>0.09083447078198252</v>
+        <v>0.0007809258440121425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.68136733333333</v>
+        <v>1.0325075</v>
       </c>
       <c r="H12">
-        <v>164.044102</v>
+        <v>2.065015</v>
       </c>
       <c r="I12">
-        <v>0.3487542616983074</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J12">
-        <v>0.37402786366769</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.307929333333333</v>
+        <v>2.898691666666667</v>
       </c>
       <c r="N12">
-        <v>3.923788</v>
+        <v>8.696075</v>
       </c>
       <c r="O12">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="P12">
-        <v>0.2442423934209346</v>
+        <v>0.537535025087018</v>
       </c>
       <c r="Q12">
-        <v>71.51936432204177</v>
+        <v>2.992920886020833</v>
       </c>
       <c r="R12">
-        <v>643.674278898376</v>
+        <v>17.957525316125</v>
       </c>
       <c r="S12">
-        <v>0.08518057559294556</v>
+        <v>0.001644642831346082</v>
       </c>
       <c r="T12">
-        <v>0.09135346062831562</v>
+        <v>0.001120642747423457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.68136733333333</v>
+        <v>1.0325075</v>
       </c>
       <c r="H13">
-        <v>164.044102</v>
+        <v>2.065015</v>
       </c>
       <c r="I13">
-        <v>0.3487542616983074</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J13">
-        <v>0.37402786366769</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>4.047117</v>
+        <v>0.473903</v>
       </c>
       <c r="N13">
-        <v>12.141351</v>
+        <v>1.421709</v>
       </c>
       <c r="O13">
-        <v>0.7557576065790654</v>
+        <v>0.08788084083697982</v>
       </c>
       <c r="P13">
-        <v>0.7557576065790653</v>
+        <v>0.08788084083697981</v>
       </c>
       <c r="Q13">
-        <v>221.301891317978</v>
+        <v>0.4893084017725</v>
       </c>
       <c r="R13">
-        <v>1991.717021861802</v>
+        <v>2.935850410635</v>
       </c>
       <c r="S13">
-        <v>0.2635736861053618</v>
+        <v>0.0002688803299316309</v>
       </c>
       <c r="T13">
-        <v>0.2826744030393743</v>
+        <v>0.0001832122974786505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>239.6229553333334</v>
+      </c>
+      <c r="H14">
+        <v>718.868866</v>
+      </c>
+      <c r="I14">
+        <v>0.710068151739898</v>
+      </c>
+      <c r="J14">
+        <v>0.7257497274703861</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.019968666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.059906</v>
+      </c>
+      <c r="O14">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="P14">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="Q14">
+        <v>484.0308615873996</v>
+      </c>
+      <c r="R14">
+        <v>4356.277754286596</v>
+      </c>
+      <c r="S14">
+        <v>0.2659802637544371</v>
+      </c>
+      <c r="T14">
+        <v>0.2718543332203892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>239.6229553333334</v>
+      </c>
+      <c r="H15">
+        <v>718.868866</v>
+      </c>
+      <c r="I15">
+        <v>0.710068151739898</v>
+      </c>
+      <c r="J15">
+        <v>0.7257497274703861</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.898691666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.696075</v>
+      </c>
+      <c r="O15">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="P15">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="Q15">
+        <v>694.5930637667723</v>
+      </c>
+      <c r="R15">
+        <v>6251.337573900951</v>
+      </c>
+      <c r="S15">
+        <v>0.3816865017589986</v>
+      </c>
+      <c r="T15">
+        <v>0.3901158979626905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>239.6229553333334</v>
+      </c>
+      <c r="H16">
+        <v>718.868866</v>
+      </c>
+      <c r="I16">
+        <v>0.710068151739898</v>
+      </c>
+      <c r="J16">
+        <v>0.7257497274703861</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.473903</v>
+      </c>
+      <c r="N16">
+        <v>1.421709</v>
+      </c>
+      <c r="O16">
+        <v>0.08788084083697982</v>
+      </c>
+      <c r="P16">
+        <v>0.08788084083697981</v>
+      </c>
+      <c r="Q16">
+        <v>113.5580374013327</v>
+      </c>
+      <c r="R16">
+        <v>1022.022336611994</v>
+      </c>
+      <c r="S16">
+        <v>0.06240138622646241</v>
+      </c>
+      <c r="T16">
+        <v>0.06377949628730648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H17">
+        <v>48.198014</v>
+      </c>
+      <c r="I17">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J17">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.019968666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.059906</v>
+      </c>
+      <c r="O17">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="P17">
+        <v>0.3745841340760022</v>
+      </c>
+      <c r="Q17">
+        <v>32.45282602518711</v>
+      </c>
+      <c r="R17">
+        <v>292.075434226684</v>
+      </c>
+      <c r="S17">
+        <v>0.01783318360620176</v>
+      </c>
+      <c r="T17">
+        <v>0.01822702244906651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H18">
+        <v>48.198014</v>
+      </c>
+      <c r="I18">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J18">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.898691666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.696075</v>
+      </c>
+      <c r="O18">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="P18">
+        <v>0.537535025087018</v>
+      </c>
+      <c r="Q18">
+        <v>46.57039384389445</v>
+      </c>
+      <c r="R18">
+        <v>419.13354459505</v>
+      </c>
+      <c r="S18">
+        <v>0.025590941860864</v>
+      </c>
+      <c r="T18">
+        <v>0.0261561077422267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H19">
+        <v>48.198014</v>
+      </c>
+      <c r="I19">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J19">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.473903</v>
+      </c>
+      <c r="N19">
+        <v>1.421709</v>
+      </c>
+      <c r="O19">
+        <v>0.08788084083697982</v>
+      </c>
+      <c r="P19">
+        <v>0.08788084083697981</v>
+      </c>
+      <c r="Q19">
+        <v>7.613727809547334</v>
+      </c>
+      <c r="R19">
+        <v>68.52355028592601</v>
+      </c>
+      <c r="S19">
+        <v>0.004183826883055529</v>
+      </c>
+      <c r="T19">
+        <v>0.004276225053497512</v>
       </c>
     </row>
   </sheetData>
